--- a/pm-doc/项目周报_G06_Week1.xlsx
+++ b/pm-doc/项目周报_G06_Week1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HaHaHaHa/Desktop/pm-doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HaHaHaHa/Desktop/AchieveIt-Docs-master/pm-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B7B718-28E0-E244-A69E-55296F336038}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71DA0BC-075E-BE4C-B5C9-19860158F8ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="14400" xr2:uid="{E1701B8E-C766-4E73-A45B-EFE082D1FEF4}"/>
   </bookViews>
@@ -59,11 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提前开始开发，增长开发可使用时间段，使用敏捷开发模型进行迭代开发，优先实现基本需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>见右侧所示《第一周工作总结》（右键选择打开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前开始开发，增长开发可使用时间段，使用敏捷开发模型进行迭代开发，优先实现基本需求，以迭代周期划分需求，增量进行开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,15 +183,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3225799</xdr:colOff>
+          <xdr:colOff>3225800</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>12699</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>4127500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>637742</xdr:rowOff>
+          <xdr:rowOff>635000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -201,7 +201,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A69A63-5385-F743-9191-7888368A1F33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -222,23 +222,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -549,7 +536,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -587,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47" customHeight="1">
@@ -603,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
